--- a/data/annotations/new_annotation_structure_out/iteration_10/iteration_10_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_10/iteration_10_mistral-large-2411-3.xlsx
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3253,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6589,7 +6589,7 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -6682,13 +6682,13 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
